--- a/bascket_of_8.xlsx
+++ b/bascket_of_8.xlsx
@@ -2,20 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdimoqri/pr/Research-Impact/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16740" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId1"/>
+    <sheet name="reference" sheetId="1" r:id="rId2"/>
+    <sheet name="articles" sheetId="2" r:id="rId3"/>
+    <sheet name="policy" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">articles!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">policy!$J$1:$J$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">reference!$J$1:$J$94</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="410">
   <si>
     <t>doi</t>
   </si>
@@ -588,27 +598,6 @@
     <t>https://www.gov.uk/government/publications/literature-review-to-inform-the-future-digitisation-of-jobcentre-plus-service-delivery-rr679</t>
   </si>
   <si>
-    <t>10.1057/ejis.2008.2</t>
-  </si>
-  <si>
-    <t>Stakeholder management in IOS projects: analysis of an attempt to implement an electronic patient file</t>
-  </si>
-  <si>
-    <t>rijksoverheid.nl</t>
-  </si>
-  <si>
-    <t>Meer controle door burgers over hun persoonsgegevens - Rapport - Rijksoverheid.nl</t>
-  </si>
-  <si>
-    <t>https://www.rijksoverheid.nl/documenten/rapporten/2015/05/06/meer-controle-door-burgers-over-hun-persoonsgegevens</t>
-  </si>
-  <si>
-    <t>10.1057/ejis.2008.29</t>
-  </si>
-  <si>
-    <t>Personality traits and concern for privacy: an empirical study in the context of location-based services</t>
-  </si>
-  <si>
     <t>10.1057/palgrave.ejis.3000714</t>
   </si>
   <si>
@@ -810,18 +799,6 @@
     <t>http://apo.org.au/node/23342</t>
   </si>
   <si>
-    <t>10.1287/isre.1090.0260</t>
-  </si>
-  <si>
-    <t>The Effect of Online Privacy Information on Purchasing Behavior: An Experimental Study</t>
-  </si>
-  <si>
-    <t>Stimulerende en remmende factoren van Privacy by Design in Nederland - Rapport - Rijksoverheid.nl</t>
-  </si>
-  <si>
-    <t>https://www.rijksoverheid.nl/documenten/rapporten/2012/05/01/stimulerende-en-remmende-factoren-van-privacy-by-design-in-nederland</t>
-  </si>
-  <si>
     <t>10.1057/palgrave.jit.2000053</t>
   </si>
   <si>
@@ -948,15 +925,6 @@
     <t>An Attribute Space for Organizational Communication Channels</t>
   </si>
   <si>
-    <t>overheid.nl</t>
-  </si>
-  <si>
-    <t>TNO-rapport 'Stimulerende en remmende factoren van Privacy by Design in Nederland'</t>
-  </si>
-  <si>
-    <t>https://zoek.officielebekendmakingen.nl/blg-228946.pdf</t>
-  </si>
-  <si>
     <t>10.1016/j.jsis.2011.11.002</t>
   </si>
   <si>
@@ -993,24 +961,6 @@
     <t>Developing and Validating Trust Measures for e-Commerce: An Integrative Typology</t>
   </si>
   <si>
-    <t>10.1046/j.1365-2575.2002.00123.x</t>
-  </si>
-  <si>
-    <t>The role of intermediaries in electronic marketplaces: developing a contingency model</t>
-  </si>
-  <si>
-    <t>Uitbesteden? Wat brengt de toekomst. Vier scenario's voor intermediaire e-overheidsdiensten voor bedrijven - Rapport - Rijksoverheid.nl</t>
-  </si>
-  <si>
-    <t>https://www.rijksoverheid.nl/documenten/rapporten/2010/07/16/uitbesteden-wat-brengt-de-toekomst-vier-scenario-s-voor-intermediaire-e-overheidsdiensten-voor-bedrijven</t>
-  </si>
-  <si>
-    <t>10.1080/07421222.1993.11517998</t>
-  </si>
-  <si>
-    <t>The Impact of Information Technology on the Organization of Economic Activity: The “Move to the Middle” Hypothesis</t>
-  </si>
-  <si>
     <t>Authors</t>
   </si>
   <si>
@@ -1053,18 +1003,12 @@
     <t>Wakefield &amp; Whitten</t>
   </si>
   <si>
-    <t>Junglas</t>
-  </si>
-  <si>
     <t>Bhattacherjee &amp; Hikmet</t>
   </si>
   <si>
     <t>Trauth</t>
   </si>
   <si>
-    <t>Boonstra</t>
-  </si>
-  <si>
     <t>Turel &amp; Serenko</t>
   </si>
   <si>
@@ -1086,9 +1030,6 @@
     <t>Kvasny &amp; Keil</t>
   </si>
   <si>
-    <t>Giaglis</t>
-  </si>
-  <si>
     <t>Warkentin &amp; Beranek</t>
   </si>
   <si>
@@ -1164,9 +1105,6 @@
     <t>Star &amp; Ruhleder</t>
   </si>
   <si>
-    <t>Tsai et al.</t>
-  </si>
-  <si>
     <t>Bakos et al.</t>
   </si>
   <si>
@@ -1206,9 +1144,6 @@
     <t>ALAVI</t>
   </si>
   <si>
-    <t>MISSING</t>
-  </si>
-  <si>
     <t>Wang &amp; Strong</t>
   </si>
   <si>
@@ -1266,9 +1201,6 @@
     <t>Jarvenpaa &amp; Ives</t>
   </si>
   <si>
-    <t>Clemons</t>
-  </si>
-  <si>
     <t>Cheng</t>
   </si>
   <si>
@@ -1306,6 +1238,36 @@
   </si>
   <si>
     <t>Leidner</t>
+  </si>
+  <si>
+    <t>Massey et al.</t>
+  </si>
+  <si>
+    <t>Bhattacherjee</t>
+  </si>
+  <si>
+    <t>Irma Becerra-Fernandez</t>
+  </si>
+  <si>
+    <t>Peace et al.</t>
+  </si>
+  <si>
+    <t>Espinosa et al.</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Journal</t>
+  </si>
+  <si>
+    <t>Public health implications of excessive use of the internet, computers, smartphones and similar electronic devices</t>
   </si>
 </sst>
 </file>
@@ -1355,10 +1317,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1372,6 +1339,394 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43252.987431481481" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="94">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="J1:J1048576" sheet="reference"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Journal" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
+        <s v="Journal of Management Information Systems"/>
+        <s v="The Journal of Strategic Information Systems"/>
+        <s v="European Journal of Information Systems"/>
+        <s v="Information Systems Journal"/>
+        <s v="Information Systems Research"/>
+        <s v="MIS Quarterly"/>
+        <s v="Journal of Information Technology"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="94">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+      <items count="9">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Journal" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1637,18 +1992,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A3:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection sqref="A1:F100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A4:A11"/>
+      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" activeRow="8" previousRow="8" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="52.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B12" s="5">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:J94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
+    <col min="5" max="5" width="52.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1667,8 +2130,20 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1687,8 +2162,24 @@
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="str">
+        <f>VLOOKUP(A2,articles!A:E,2,FALSE)</f>
+        <v>Irma Becerra-Fernandez</v>
+      </c>
+      <c r="H2">
+        <f>VLOOKUP(A2,articles!A:E,3,FALSE)</f>
+        <v>2001</v>
+      </c>
+      <c r="I2" t="str">
+        <f>VLOOKUP(A2,articles!A:E,4,FALSE)</f>
+        <v>Organizational Knowledge Management: A Contingency Perspective</v>
+      </c>
+      <c r="J2" t="str">
+        <f>VLOOKUP(A2,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1707,8 +2198,24 @@
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="str">
+        <f>VLOOKUP(A3,articles!A:E,2,FALSE)</f>
+        <v>Leidner</v>
+      </c>
+      <c r="H3">
+        <f>VLOOKUP(A3,articles!A:E,3,FALSE)</f>
+        <v>2009</v>
+      </c>
+      <c r="I3" t="str">
+        <f>VLOOKUP(A3,articles!A:E,4,FALSE)</f>
+        <v>The role of IT in crisis response: Lessons from the SARS and Asian Tsunami disasters</v>
+      </c>
+      <c r="J3" t="str">
+        <f>VLOOKUP(A3,articles!A:E,5,FALSE)</f>
+        <v>The Journal of Strategic Information Systems</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1727,8 +2234,24 @@
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="str">
+        <f>VLOOKUP(A4,articles!A:E,2,FALSE)</f>
+        <v>Meso et al.</v>
+      </c>
+      <c r="H4">
+        <f>VLOOKUP(A4,articles!A:E,3,FALSE)</f>
+        <v>2009</v>
+      </c>
+      <c r="I4" t="str">
+        <f>VLOOKUP(A4,articles!A:E,4,FALSE)</f>
+        <v>Information infrastructure, governance, and socio-economic development in developing countries</v>
+      </c>
+      <c r="J4" t="str">
+        <f>VLOOKUP(A4,articles!A:E,5,FALSE)</f>
+        <v>European Journal of Information Systems</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1747,8 +2270,24 @@
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="str">
+        <f>VLOOKUP(A5,articles!A:E,2,FALSE)</f>
+        <v>Meso et al.</v>
+      </c>
+      <c r="H5">
+        <f>VLOOKUP(A5,articles!A:E,3,FALSE)</f>
+        <v>2009</v>
+      </c>
+      <c r="I5" t="str">
+        <f>VLOOKUP(A5,articles!A:E,4,FALSE)</f>
+        <v>Information infrastructure, governance, and socio-economic development in developing countries</v>
+      </c>
+      <c r="J5" t="str">
+        <f>VLOOKUP(A5,articles!A:E,5,FALSE)</f>
+        <v>European Journal of Information Systems</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1767,8 +2306,24 @@
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="str">
+        <f>VLOOKUP(A6,articles!A:E,2,FALSE)</f>
+        <v>Gleasure</v>
+      </c>
+      <c r="H6">
+        <f>VLOOKUP(A6,articles!A:E,3,FALSE)</f>
+        <v>2015</v>
+      </c>
+      <c r="I6" t="str">
+        <f>VLOOKUP(A6,articles!A:E,4,FALSE)</f>
+        <v>Resistance to crowdfunding among entrepreneurs: An impression management perspective</v>
+      </c>
+      <c r="J6" t="str">
+        <f>VLOOKUP(A6,articles!A:E,5,FALSE)</f>
+        <v>The Journal of Strategic Information Systems</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1787,8 +2342,24 @@
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="str">
+        <f>VLOOKUP(A7,articles!A:E,2,FALSE)</f>
+        <v>Gleasure</v>
+      </c>
+      <c r="H7">
+        <f>VLOOKUP(A7,articles!A:E,3,FALSE)</f>
+        <v>2015</v>
+      </c>
+      <c r="I7" t="str">
+        <f>VLOOKUP(A7,articles!A:E,4,FALSE)</f>
+        <v>Resistance to crowdfunding among entrepreneurs: An impression management perspective</v>
+      </c>
+      <c r="J7" t="str">
+        <f>VLOOKUP(A7,articles!A:E,5,FALSE)</f>
+        <v>The Journal of Strategic Information Systems</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1807,8 +2378,24 @@
       <c r="F8" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="str">
+        <f>VLOOKUP(A8,articles!A:E,2,FALSE)</f>
+        <v>Panko</v>
+      </c>
+      <c r="H8">
+        <f>VLOOKUP(A8,articles!A:E,3,FALSE)</f>
+        <v>2008</v>
+      </c>
+      <c r="I8" t="str">
+        <f>VLOOKUP(A8,articles!A:E,4,FALSE)</f>
+        <v>IT employment prospects: beyond the dotcom bubble</v>
+      </c>
+      <c r="J8" t="str">
+        <f>VLOOKUP(A8,articles!A:E,5,FALSE)</f>
+        <v>European Journal of Information Systems</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1827,8 +2414,24 @@
       <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="str">
+        <f>VLOOKUP(A9,articles!A:E,2,FALSE)</f>
+        <v>Changchit</v>
+      </c>
+      <c r="H9">
+        <f>VLOOKUP(A9,articles!A:E,3,FALSE)</f>
+        <v>1998</v>
+      </c>
+      <c r="I9" t="str">
+        <f>VLOOKUP(A9,articles!A:E,4,FALSE)</f>
+        <v>Process and reality in information systems benefit analysis</v>
+      </c>
+      <c r="J9" t="str">
+        <f>VLOOKUP(A9,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Journal</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1847,8 +2450,24 @@
       <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="str">
+        <f>VLOOKUP(A10,articles!A:E,2,FALSE)</f>
+        <v>Hedman &amp; Kalling</v>
+      </c>
+      <c r="H10">
+        <f>VLOOKUP(A10,articles!A:E,3,FALSE)</f>
+        <v>2003</v>
+      </c>
+      <c r="I10" t="str">
+        <f>VLOOKUP(A10,articles!A:E,4,FALSE)</f>
+        <v>The business model concept: theoretical underpinnings and empirical illustrations</v>
+      </c>
+      <c r="J10" t="str">
+        <f>VLOOKUP(A10,articles!A:E,5,FALSE)</f>
+        <v>European Journal of Information Systems</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -1867,8 +2486,24 @@
       <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="str">
+        <f>VLOOKUP(A11,articles!A:E,2,FALSE)</f>
+        <v>Trauth</v>
+      </c>
+      <c r="H11">
+        <f>VLOOKUP(A11,articles!A:E,3,FALSE)</f>
+        <v>2009</v>
+      </c>
+      <c r="I11" t="str">
+        <f>VLOOKUP(A11,articles!A:E,4,FALSE)</f>
+        <v>Retaining women in the U.S. IT workforce: theorizing the influence of organizational factors</v>
+      </c>
+      <c r="J11" t="str">
+        <f>VLOOKUP(A11,articles!A:E,5,FALSE)</f>
+        <v>European Journal of Information Systems</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1887,8 +2522,24 @@
       <c r="F12" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="str">
+        <f>VLOOKUP(A12,articles!A:E,2,FALSE)</f>
+        <v>Chang et al.</v>
+      </c>
+      <c r="H12">
+        <f>VLOOKUP(A12,articles!A:E,3,FALSE)</f>
+        <v>2011</v>
+      </c>
+      <c r="I12" t="str">
+        <f>VLOOKUP(A12,articles!A:E,4,FALSE)</f>
+        <v>Information system personnel career anchor changes leading to career changes</v>
+      </c>
+      <c r="J12" t="str">
+        <f>VLOOKUP(A12,articles!A:E,5,FALSE)</f>
+        <v>European Journal of Information Systems</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,8 +2558,24 @@
       <c r="F13" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="str">
+        <f>VLOOKUP(A13,articles!A:E,2,FALSE)</f>
+        <v>Hu et al.</v>
+      </c>
+      <c r="H13">
+        <f>VLOOKUP(A13,articles!A:E,3,FALSE)</f>
+        <v>1999</v>
+      </c>
+      <c r="I13" t="str">
+        <f>VLOOKUP(A13,articles!A:E,4,FALSE)</f>
+        <v>Examining the Technology Acceptance Model Using Physician Acceptance of Telemedicine Technology</v>
+      </c>
+      <c r="J13" t="str">
+        <f>VLOOKUP(A13,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1927,8 +2594,24 @@
       <c r="F14" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="str">
+        <f>VLOOKUP(A14,articles!A:E,2,FALSE)</f>
+        <v>Wakefield &amp; Whitten</v>
+      </c>
+      <c r="H14">
+        <f>VLOOKUP(A14,articles!A:E,3,FALSE)</f>
+        <v>2006</v>
+      </c>
+      <c r="I14" t="str">
+        <f>VLOOKUP(A14,articles!A:E,4,FALSE)</f>
+        <v>Mobile computing: a user study on hedonic/utilitarian mobile device usage</v>
+      </c>
+      <c r="J14" t="str">
+        <f>VLOOKUP(A14,articles!A:E,5,FALSE)</f>
+        <v>European Journal of Information Systems</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -1947,8 +2630,24 @@
       <c r="F15" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="str">
+        <f>VLOOKUP(A15,articles!A:E,2,FALSE)</f>
+        <v>LANG &amp; VRAGOV</v>
+      </c>
+      <c r="H15">
+        <f>VLOOKUP(A15,articles!A:E,3,FALSE)</f>
+        <v>2005</v>
+      </c>
+      <c r="I15" t="str">
+        <f>VLOOKUP(A15,articles!A:E,4,FALSE)</f>
+        <v>A Pricing Mechanism for Digital Content Distribution Over Computer Networks</v>
+      </c>
+      <c r="J15" t="str">
+        <f>VLOOKUP(A15,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -1967,8 +2666,24 @@
       <c r="F16" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="str">
+        <f>VLOOKUP(A16,articles!A:E,2,FALSE)</f>
+        <v>Lim et al.</v>
+      </c>
+      <c r="H16">
+        <f>VLOOKUP(A16,articles!A:E,3,FALSE)</f>
+        <v>2006</v>
+      </c>
+      <c r="I16" t="str">
+        <f>VLOOKUP(A16,articles!A:E,4,FALSE)</f>
+        <v>Do I Trust You Online, and If So, Will I Buy? An Empirical Study of Two Trust-Building Strategies</v>
+      </c>
+      <c r="J16" t="str">
+        <f>VLOOKUP(A16,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -1987,8 +2702,24 @@
       <c r="F17" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="str">
+        <f>VLOOKUP(A17,articles!A:E,2,FALSE)</f>
+        <v>Wang &amp; Benbasat</v>
+      </c>
+      <c r="H17">
+        <f>VLOOKUP(A17,articles!A:E,3,FALSE)</f>
+        <v>2007</v>
+      </c>
+      <c r="I17" t="str">
+        <f>VLOOKUP(A17,articles!A:E,4,FALSE)</f>
+        <v>Recommendation Agents for Electronic Commerce: Effects of Explanation Facilities on Trusting Beliefs</v>
+      </c>
+      <c r="J17" t="str">
+        <f>VLOOKUP(A17,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -2007,8 +2738,24 @@
       <c r="F18" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="str">
+        <f>VLOOKUP(A18,articles!A:E,2,FALSE)</f>
+        <v>Cheng</v>
+      </c>
+      <c r="H18">
+        <f>VLOOKUP(A18,articles!A:E,3,FALSE)</f>
+        <v>1997</v>
+      </c>
+      <c r="I18" t="str">
+        <f>VLOOKUP(A18,articles!A:E,4,FALSE)</f>
+        <v>To Purchase or to Pirate Software: An Empirical Study</v>
+      </c>
+      <c r="J18" t="str">
+        <f>VLOOKUP(A18,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -2027,8 +2774,24 @@
       <c r="F19" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="str">
+        <f>VLOOKUP(A19,articles!A:E,2,FALSE)</f>
+        <v>Burtch</v>
+      </c>
+      <c r="H19">
+        <f>VLOOKUP(A19,articles!A:E,3,FALSE)</f>
+        <v>2013</v>
+      </c>
+      <c r="I19" t="str">
+        <f>VLOOKUP(A19,articles!A:E,4,FALSE)</f>
+        <v>An Empirical Examination of the Antecedents and Consequences of Contribution Patterns in Crowd-Funded Markets</v>
+      </c>
+      <c r="J19" t="str">
+        <f>VLOOKUP(A19,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
@@ -2047,8 +2810,24 @@
       <c r="F20" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="str">
+        <f>VLOOKUP(A20,articles!A:E,2,FALSE)</f>
+        <v>Wagner &amp; Majchrzak</v>
+      </c>
+      <c r="H20">
+        <f>VLOOKUP(A20,articles!A:E,3,FALSE)</f>
+        <v>2007</v>
+      </c>
+      <c r="I20" t="str">
+        <f>VLOOKUP(A20,articles!A:E,4,FALSE)</f>
+        <v>Enabling Customer-Centricity Using Wikis and the Wiki Way</v>
+      </c>
+      <c r="J20" t="str">
+        <f>VLOOKUP(A20,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -2067,8 +2846,24 @@
       <c r="F21" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="str">
+        <f>VLOOKUP(A21,articles!A:E,2,FALSE)</f>
+        <v>Wang &amp; Strong</v>
+      </c>
+      <c r="H21">
+        <f>VLOOKUP(A21,articles!A:E,3,FALSE)</f>
+        <v>1996</v>
+      </c>
+      <c r="I21" t="str">
+        <f>VLOOKUP(A21,articles!A:E,4,FALSE)</f>
+        <v>Beyond Accuracy: What Data Quality Means to Data Consumers</v>
+      </c>
+      <c r="J21" t="str">
+        <f>VLOOKUP(A21,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
@@ -2087,8 +2882,24 @@
       <c r="F22" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="str">
+        <f>VLOOKUP(A22,articles!A:E,2,FALSE)</f>
+        <v>Barua</v>
+      </c>
+      <c r="H22">
+        <f>VLOOKUP(A22,articles!A:E,3,FALSE)</f>
+        <v>1995</v>
+      </c>
+      <c r="I22" t="str">
+        <f>VLOOKUP(A22,articles!A:E,4,FALSE)</f>
+        <v>Information Technologies and Business Value: An Analytic and Empirical Investigation</v>
+      </c>
+      <c r="J22" t="str">
+        <f>VLOOKUP(A22,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -2107,8 +2918,24 @@
       <c r="F23" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="str">
+        <f>VLOOKUP(A23,articles!A:E,2,FALSE)</f>
+        <v>Kvasny &amp; Keil</v>
+      </c>
+      <c r="H23">
+        <f>VLOOKUP(A23,articles!A:E,3,FALSE)</f>
+        <v>2006</v>
+      </c>
+      <c r="I23" t="str">
+        <f>VLOOKUP(A23,articles!A:E,4,FALSE)</f>
+        <v>The challenges of redressing the digital divide: a tale of two US cities</v>
+      </c>
+      <c r="J23" t="str">
+        <f>VLOOKUP(A23,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Journal</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>85</v>
       </c>
@@ -2127,8 +2954,24 @@
       <c r="F24" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="str">
+        <f>VLOOKUP(A24,articles!A:E,2,FALSE)</f>
+        <v>Pavlou &amp; El Sawy</v>
+      </c>
+      <c r="H24">
+        <f>VLOOKUP(A24,articles!A:E,3,FALSE)</f>
+        <v>2006</v>
+      </c>
+      <c r="I24" t="str">
+        <f>VLOOKUP(A24,articles!A:E,4,FALSE)</f>
+        <v>From IT Leveraging Competence to Competitive Advantage in Turbulent Environments: The Case of New Product Development</v>
+      </c>
+      <c r="J24" t="str">
+        <f>VLOOKUP(A24,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
@@ -2147,8 +2990,24 @@
       <c r="F25" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="str">
+        <f>VLOOKUP(A25,articles!A:E,2,FALSE)</f>
+        <v>Hitt</v>
+      </c>
+      <c r="H25">
+        <f>VLOOKUP(A25,articles!A:E,3,FALSE)</f>
+        <v>1999</v>
+      </c>
+      <c r="I25" t="str">
+        <f>VLOOKUP(A25,articles!A:E,4,FALSE)</f>
+        <v>Information Technology and Firm Boundaries: Evidence from Panel Data</v>
+      </c>
+      <c r="J25" t="str">
+        <f>VLOOKUP(A25,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>94</v>
       </c>
@@ -2167,8 +3026,24 @@
       <c r="F26" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="str">
+        <f>VLOOKUP(A26,articles!A:E,2,FALSE)</f>
+        <v>Star &amp; Ruhleder</v>
+      </c>
+      <c r="H26">
+        <f>VLOOKUP(A26,articles!A:E,3,FALSE)</f>
+        <v>1996</v>
+      </c>
+      <c r="I26" t="str">
+        <f>VLOOKUP(A26,articles!A:E,4,FALSE)</f>
+        <v>Steps Toward an Ecology of Infrastructure: Design and Access for Large Information Spaces</v>
+      </c>
+      <c r="J26" t="str">
+        <f>VLOOKUP(A26,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>98</v>
       </c>
@@ -2187,8 +3062,24 @@
       <c r="F27" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="str">
+        <f>VLOOKUP(A27,articles!A:E,2,FALSE)</f>
+        <v>Jarvenpaa</v>
+      </c>
+      <c r="H27">
+        <f>VLOOKUP(A27,articles!A:E,3,FALSE)</f>
+        <v>1998</v>
+      </c>
+      <c r="I27" t="str">
+        <f>VLOOKUP(A27,articles!A:E,4,FALSE)</f>
+        <v>Is Anybody out There? Antecedents of Trust in Global Virtual Teams</v>
+      </c>
+      <c r="J27" t="str">
+        <f>VLOOKUP(A27,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -2207,8 +3098,24 @@
       <c r="F28" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="str">
+        <f>VLOOKUP(A28,articles!A:E,2,FALSE)</f>
+        <v>Massey et al.</v>
+      </c>
+      <c r="H28">
+        <f>VLOOKUP(A28,articles!A:E,3,FALSE)</f>
+        <v>2003</v>
+      </c>
+      <c r="I28" t="str">
+        <f>VLOOKUP(A28,articles!A:E,4,FALSE)</f>
+        <v>Because Time Matters: Temporal Coordination in Global Virtual Project Teams</v>
+      </c>
+      <c r="J28" t="str">
+        <f>VLOOKUP(A28,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>104</v>
       </c>
@@ -2227,8 +3134,24 @@
       <c r="F29" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="str">
+        <f>VLOOKUP(A29,articles!A:E,2,FALSE)</f>
+        <v>Espinosa et al.</v>
+      </c>
+      <c r="H29">
+        <f>VLOOKUP(A29,articles!A:E,3,FALSE)</f>
+        <v>2003</v>
+      </c>
+      <c r="I29" t="str">
+        <f>VLOOKUP(A29,articles!A:E,4,FALSE)</f>
+        <v>Team Boundary Issues Across Multiple Global Firms</v>
+      </c>
+      <c r="J29" t="str">
+        <f>VLOOKUP(A29,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>106</v>
       </c>
@@ -2247,8 +3170,24 @@
       <c r="F30" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="str">
+        <f>VLOOKUP(A30,articles!A:E,2,FALSE)</f>
+        <v>Cummings</v>
+      </c>
+      <c r="H30">
+        <f>VLOOKUP(A30,articles!A:E,3,FALSE)</f>
+        <v>2009</v>
+      </c>
+      <c r="I30" t="str">
+        <f>VLOOKUP(A30,articles!A:E,4,FALSE)</f>
+        <v>Crossing Spatial and Temporal Boundaries in Globally Distributed Projects: A Relational Model of Coordination Delay</v>
+      </c>
+      <c r="J30" t="str">
+        <f>VLOOKUP(A30,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>108</v>
       </c>
@@ -2267,8 +3206,24 @@
       <c r="F31" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" t="str">
+        <f>VLOOKUP(A31,articles!A:E,2,FALSE)</f>
+        <v>von Krogh</v>
+      </c>
+      <c r="H31">
+        <f>VLOOKUP(A31,articles!A:E,3,FALSE)</f>
+        <v>2012</v>
+      </c>
+      <c r="I31" t="str">
+        <f>VLOOKUP(A31,articles!A:E,4,FALSE)</f>
+        <v>How does social software change knowledge management? Toward a strategic research agenda</v>
+      </c>
+      <c r="J31" t="str">
+        <f>VLOOKUP(A31,articles!A:E,5,FALSE)</f>
+        <v>The Journal of Strategic Information Systems</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>112</v>
       </c>
@@ -2287,8 +3242,24 @@
       <c r="F32" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="str">
+        <f>VLOOKUP(A32,articles!A:E,2,FALSE)</f>
+        <v>Agarwal</v>
+      </c>
+      <c r="H32">
+        <f>VLOOKUP(A32,articles!A:E,3,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="I32" t="str">
+        <f>VLOOKUP(A32,articles!A:E,4,FALSE)</f>
+        <v>Research Report: The Evolving Relationship Between General and Specific Computer Self-Efficacy—An Empirical Assessment</v>
+      </c>
+      <c r="J32" t="str">
+        <f>VLOOKUP(A32,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>116</v>
       </c>
@@ -2307,8 +3278,24 @@
       <c r="F33" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="str">
+        <f>VLOOKUP(A33,articles!A:E,2,FALSE)</f>
+        <v>Chin &amp; Todd</v>
+      </c>
+      <c r="H33">
+        <f>VLOOKUP(A33,articles!A:E,3,FALSE)</f>
+        <v>1995</v>
+      </c>
+      <c r="I33" t="str">
+        <f>VLOOKUP(A33,articles!A:E,4,FALSE)</f>
+        <v>On the Use, Usefulness, and Ease of Use of Structural Equation Modeling in MIS Research: A Note of Caution</v>
+      </c>
+      <c r="J33" t="str">
+        <f>VLOOKUP(A33,articles!A:E,5,FALSE)</f>
+        <v>MIS Quarterly</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>118</v>
       </c>
@@ -2327,8 +3314,24 @@
       <c r="F34" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="str">
+        <f>VLOOKUP(A34,articles!A:E,2,FALSE)</f>
+        <v>Igbaria &amp; Baroudi</v>
+      </c>
+      <c r="H34">
+        <f>VLOOKUP(A34,articles!A:E,3,FALSE)</f>
+        <v>1993</v>
+      </c>
+      <c r="I34" t="str">
+        <f>VLOOKUP(A34,articles!A:E,4,FALSE)</f>
+        <v>A Short-Form Measure of Career Orientations: A Psychometric Evaluation</v>
+      </c>
+      <c r="J34" t="str">
+        <f>VLOOKUP(A34,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>122</v>
       </c>
@@ -2347,8 +3350,24 @@
       <c r="F35" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" t="str">
+        <f>VLOOKUP(A35,articles!A:E,2,FALSE)</f>
+        <v>Bender</v>
+      </c>
+      <c r="H35">
+        <f>VLOOKUP(A35,articles!A:E,3,FALSE)</f>
+        <v>1986</v>
+      </c>
+      <c r="I35" t="str">
+        <f>VLOOKUP(A35,articles!A:E,4,FALSE)</f>
+        <v>Financial Impact of Information Processing</v>
+      </c>
+      <c r="J35" t="str">
+        <f>VLOOKUP(A35,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>126</v>
       </c>
@@ -2367,8 +3386,24 @@
       <c r="F36" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="str">
+        <f>VLOOKUP(A36,articles!A:E,2,FALSE)</f>
+        <v>Hitt &amp; Brynjolfsson</v>
+      </c>
+      <c r="H36">
+        <f>VLOOKUP(A36,articles!A:E,3,FALSE)</f>
+        <v>1997</v>
+      </c>
+      <c r="I36" t="str">
+        <f>VLOOKUP(A36,articles!A:E,4,FALSE)</f>
+        <v>Information Technology and Internal Firm Organization: An Exploratory Analysis</v>
+      </c>
+      <c r="J36" t="str">
+        <f>VLOOKUP(A36,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>128</v>
       </c>
@@ -2387,8 +3422,24 @@
       <c r="F37" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" t="str">
+        <f>VLOOKUP(A37,articles!A:E,2,FALSE)</f>
+        <v>Weill</v>
+      </c>
+      <c r="H37">
+        <f>VLOOKUP(A37,articles!A:E,3,FALSE)</f>
+        <v>1992</v>
+      </c>
+      <c r="I37" t="str">
+        <f>VLOOKUP(A37,articles!A:E,4,FALSE)</f>
+        <v>The Relationship Between Investment in Information Technology and Firm Performance: A Study of the Valve Manufacturing Sector</v>
+      </c>
+      <c r="J37" t="str">
+        <f>VLOOKUP(A37,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>130</v>
       </c>
@@ -2407,8 +3458,24 @@
       <c r="F38" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" t="str">
+        <f>VLOOKUP(A38,articles!A:E,2,FALSE)</f>
+        <v>Ren</v>
+      </c>
+      <c r="H38">
+        <f>VLOOKUP(A38,articles!A:E,3,FALSE)</f>
+        <v>2008</v>
+      </c>
+      <c r="I38" t="str">
+        <f>VLOOKUP(A38,articles!A:E,4,FALSE)</f>
+        <v>Multiple Group Coordination in Complex and Dynamic Task Environments: Interruptions, Coping Mechanisms, and Technology Recommendations</v>
+      </c>
+      <c r="J38" t="str">
+        <f>VLOOKUP(A38,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>94</v>
       </c>
@@ -2427,8 +3494,24 @@
       <c r="F39" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="str">
+        <f>VLOOKUP(A39,articles!A:E,2,FALSE)</f>
+        <v>Star &amp; Ruhleder</v>
+      </c>
+      <c r="H39">
+        <f>VLOOKUP(A39,articles!A:E,3,FALSE)</f>
+        <v>1996</v>
+      </c>
+      <c r="I39" t="str">
+        <f>VLOOKUP(A39,articles!A:E,4,FALSE)</f>
+        <v>Steps Toward an Ecology of Infrastructure: Design and Access for Large Information Spaces</v>
+      </c>
+      <c r="J39" t="str">
+        <f>VLOOKUP(A39,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>136</v>
       </c>
@@ -2447,8 +3530,24 @@
       <c r="F40" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" t="str">
+        <f>VLOOKUP(A40,articles!A:E,2,FALSE)</f>
+        <v>Aral</v>
+      </c>
+      <c r="H40">
+        <f>VLOOKUP(A40,articles!A:E,3,FALSE)</f>
+        <v>2012</v>
+      </c>
+      <c r="I40" t="str">
+        <f>VLOOKUP(A40,articles!A:E,4,FALSE)</f>
+        <v>Information, Technology, and Information Worker Productivity</v>
+      </c>
+      <c r="J40" t="str">
+        <f>VLOOKUP(A40,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>140</v>
       </c>
@@ -2467,8 +3566,24 @@
       <c r="F41" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="str">
+        <f>VLOOKUP(A41,articles!A:E,2,FALSE)</f>
+        <v>Andersen</v>
+      </c>
+      <c r="H41">
+        <f>VLOOKUP(A41,articles!A:E,3,FALSE)</f>
+        <v>2001</v>
+      </c>
+      <c r="I41" t="str">
+        <f>VLOOKUP(A41,articles!A:E,4,FALSE)</f>
+        <v>Information technology, strategic decision making approaches and organizational performance in different industrial settings</v>
+      </c>
+      <c r="J41" t="str">
+        <f>VLOOKUP(A41,articles!A:E,5,FALSE)</f>
+        <v>The Journal of Strategic Information Systems</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>144</v>
       </c>
@@ -2487,8 +3602,24 @@
       <c r="F42" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" t="str">
+        <f>VLOOKUP(A42,articles!A:E,2,FALSE)</f>
+        <v>CROWSTON</v>
+      </c>
+      <c r="H42">
+        <f>VLOOKUP(A42,articles!A:E,3,FALSE)</f>
+        <v>2004</v>
+      </c>
+      <c r="I42" t="str">
+        <f>VLOOKUP(A42,articles!A:E,4,FALSE)</f>
+        <v>Information technology and the transformation of industries: three research perspectives</v>
+      </c>
+      <c r="J42" t="str">
+        <f>VLOOKUP(A42,articles!A:E,5,FALSE)</f>
+        <v>The Journal of Strategic Information Systems</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>146</v>
       </c>
@@ -2507,8 +3638,24 @@
       <c r="F43" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="str">
+        <f>VLOOKUP(A43,articles!A:E,2,FALSE)</f>
+        <v>Devaraj &amp; Kohli</v>
+      </c>
+      <c r="H43">
+        <f>VLOOKUP(A43,articles!A:E,3,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="I43" t="str">
+        <f>VLOOKUP(A43,articles!A:E,4,FALSE)</f>
+        <v>Information Technology Payoff in the Health-Care Industry: A Longitudinal Study</v>
+      </c>
+      <c r="J43" t="str">
+        <f>VLOOKUP(A43,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>148</v>
       </c>
@@ -2527,8 +3674,24 @@
       <c r="F44" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" t="str">
+        <f>VLOOKUP(A44,articles!A:E,2,FALSE)</f>
+        <v>Kohli &amp; Devaraj</v>
+      </c>
+      <c r="H44">
+        <f>VLOOKUP(A44,articles!A:E,3,FALSE)</f>
+        <v>2003</v>
+      </c>
+      <c r="I44" t="str">
+        <f>VLOOKUP(A44,articles!A:E,4,FALSE)</f>
+        <v>Measuring Information Technology Payoff: A Meta-Analysis of Structural Variables in Firm-Level Empirical Research</v>
+      </c>
+      <c r="J44" t="str">
+        <f>VLOOKUP(A44,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>150</v>
       </c>
@@ -2547,8 +3710,24 @@
       <c r="F45" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" t="str">
+        <f>VLOOKUP(A45,articles!A:E,2,FALSE)</f>
+        <v>Tilson</v>
+      </c>
+      <c r="H45">
+        <f>VLOOKUP(A45,articles!A:E,3,FALSE)</f>
+        <v>2010</v>
+      </c>
+      <c r="I45" t="str">
+        <f>VLOOKUP(A45,articles!A:E,4,FALSE)</f>
+        <v>Research Commentary—Digital Infrastructures: The Missing IS Research Agenda</v>
+      </c>
+      <c r="J45" t="str">
+        <f>VLOOKUP(A45,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>155</v>
       </c>
@@ -2567,8 +3746,24 @@
       <c r="F46" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" t="str">
+        <f>VLOOKUP(A46,articles!A:E,2,FALSE)</f>
+        <v>Yoo</v>
+      </c>
+      <c r="H46">
+        <f>VLOOKUP(A46,articles!A:E,3,FALSE)</f>
+        <v>2010</v>
+      </c>
+      <c r="I46" t="str">
+        <f>VLOOKUP(A46,articles!A:E,4,FALSE)</f>
+        <v>Research Commentary—The New Organizing Logic of Digital Innovation: An Agenda for Information Systems Research</v>
+      </c>
+      <c r="J46" t="str">
+        <f>VLOOKUP(A46,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>157</v>
       </c>
@@ -2587,8 +3782,24 @@
       <c r="F47" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="str">
+        <f>VLOOKUP(A47,articles!A:E,2,FALSE)</f>
+        <v>Alpar &amp; Kim</v>
+      </c>
+      <c r="H47">
+        <f>VLOOKUP(A47,articles!A:E,3,FALSE)</f>
+        <v>1990</v>
+      </c>
+      <c r="I47" t="str">
+        <f>VLOOKUP(A47,articles!A:E,4,FALSE)</f>
+        <v>A Microeconomic Approach to the Measurement of Information Technology Value</v>
+      </c>
+      <c r="J47" t="str">
+        <f>VLOOKUP(A47,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>161</v>
       </c>
@@ -2607,8 +3818,24 @@
       <c r="F48" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" t="str">
+        <f>VLOOKUP(A48,articles!A:E,2,FALSE)</f>
+        <v>Seidmann &amp; Sundararajan</v>
+      </c>
+      <c r="H48">
+        <f>VLOOKUP(A48,articles!A:E,3,FALSE)</f>
+        <v>1997</v>
+      </c>
+      <c r="I48" t="str">
+        <f>VLOOKUP(A48,articles!A:E,4,FALSE)</f>
+        <v>Competing in Information-Intensive Services: Analyzing the Impact of Task Consolidation and Employee Empowerment</v>
+      </c>
+      <c r="J48" t="str">
+        <f>VLOOKUP(A48,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>166</v>
       </c>
@@ -2627,8 +3854,24 @@
       <c r="F49" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" t="str">
+        <f>VLOOKUP(A49,articles!A:E,2,FALSE)</f>
+        <v>Stamelos et al.</v>
+      </c>
+      <c r="H49">
+        <f>VLOOKUP(A49,articles!A:E,3,FALSE)</f>
+        <v>2002</v>
+      </c>
+      <c r="I49" t="str">
+        <f>VLOOKUP(A49,articles!A:E,4,FALSE)</f>
+        <v>Code quality analysis in open source software development</v>
+      </c>
+      <c r="J49" t="str">
+        <f>VLOOKUP(A49,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Journal</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>94</v>
       </c>
@@ -2647,8 +3890,24 @@
       <c r="F50" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" t="str">
+        <f>VLOOKUP(A50,articles!A:E,2,FALSE)</f>
+        <v>Star &amp; Ruhleder</v>
+      </c>
+      <c r="H50">
+        <f>VLOOKUP(A50,articles!A:E,3,FALSE)</f>
+        <v>1996</v>
+      </c>
+      <c r="I50" t="str">
+        <f>VLOOKUP(A50,articles!A:E,4,FALSE)</f>
+        <v>Steps Toward an Ecology of Infrastructure: Design and Access for Large Information Spaces</v>
+      </c>
+      <c r="J50" t="str">
+        <f>VLOOKUP(A50,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>172</v>
       </c>
@@ -2667,8 +3926,24 @@
       <c r="F51" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" t="str">
+        <f>VLOOKUP(A51,articles!A:E,2,FALSE)</f>
+        <v>ALAVI</v>
+      </c>
+      <c r="H51">
+        <f>VLOOKUP(A51,articles!A:E,3,FALSE)</f>
+        <v>2006</v>
+      </c>
+      <c r="I51" t="str">
+        <f>VLOOKUP(A51,articles!A:E,4,FALSE)</f>
+        <v>An Empirical Examination of the Influence of Organizational Culture on Knowledge Management Practices</v>
+      </c>
+      <c r="J51" t="str">
+        <f>VLOOKUP(A51,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>177</v>
       </c>
@@ -2687,8 +3962,24 @@
       <c r="F52" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" t="str">
+        <f>VLOOKUP(A52,articles!A:E,2,FALSE)</f>
+        <v>Wei et al.</v>
+      </c>
+      <c r="H52">
+        <f>VLOOKUP(A52,articles!A:E,3,FALSE)</f>
+        <v>2011</v>
+      </c>
+      <c r="I52" t="str">
+        <f>VLOOKUP(A52,articles!A:E,4,FALSE)</f>
+        <v>Conceptualizing and Testing a Social Cognitive Model of the Digital Divide</v>
+      </c>
+      <c r="J52" t="str">
+        <f>VLOOKUP(A52,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>181</v>
       </c>
@@ -2707,93 +3998,173 @@
       <c r="F53" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" t="str">
+        <f>VLOOKUP(A53,articles!A:E,2,FALSE)</f>
+        <v>Irani &amp; Elliman</v>
+      </c>
+      <c r="H53">
+        <f>VLOOKUP(A53,articles!A:E,3,FALSE)</f>
+        <v>2008</v>
+      </c>
+      <c r="I53" t="str">
+        <f>VLOOKUP(A53,articles!A:E,4,FALSE)</f>
+        <v>Creating social entrepreneurship in local government</v>
+      </c>
+      <c r="J53" t="str">
+        <f>VLOOKUP(A53,articles!A:E,5,FALSE)</f>
+        <v>European Journal of Information Systems</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D54" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" t="str">
+        <f>VLOOKUP(A54,articles!A:E,2,FALSE)</f>
+        <v>Reardon &amp; Davidson</v>
+      </c>
+      <c r="H54">
+        <f>VLOOKUP(A54,articles!A:E,3,FALSE)</f>
+        <v>2007</v>
+      </c>
+      <c r="I54" t="str">
+        <f>VLOOKUP(A54,articles!A:E,4,FALSE)</f>
+        <v>An organizational learning perspective on the assimilation of electronic medical records among small physician practices</v>
+      </c>
+      <c r="J54" t="str">
+        <f>VLOOKUP(A54,articles!A:E,5,FALSE)</f>
+        <v>European Journal of Information Systems</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G55" t="str">
+        <f>VLOOKUP(A55,articles!A:E,2,FALSE)</f>
+        <v>Bhattacherjee &amp; Hikmet</v>
+      </c>
+      <c r="H55">
+        <f>VLOOKUP(A55,articles!A:E,3,FALSE)</f>
+        <v>2007</v>
+      </c>
+      <c r="I55" t="str">
+        <f>VLOOKUP(A55,articles!A:E,4,FALSE)</f>
+        <v>Physicians' resistance toward healthcare information technology: a theoretical model and empirical test</v>
+      </c>
+      <c r="J55" t="str">
+        <f>VLOOKUP(A55,articles!A:E,5,FALSE)</f>
+        <v>European Journal of Information Systems</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" t="str">
+        <f>VLOOKUP(A56,articles!A:E,2,FALSE)</f>
+        <v>Bakos et al.</v>
+      </c>
+      <c r="H56">
+        <f>VLOOKUP(A56,articles!A:E,3,FALSE)</f>
+        <v>2005</v>
+      </c>
+      <c r="I56" t="str">
+        <f>VLOOKUP(A56,articles!A:E,4,FALSE)</f>
+        <v>The Impact of E-Commerce on Competition in the Retail Brokerage Industry</v>
+      </c>
+      <c r="J56" t="str">
+        <f>VLOOKUP(A56,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G57" t="str">
+        <f>VLOOKUP(A57,articles!A:E,2,FALSE)</f>
+        <v>Ghose</v>
+      </c>
+      <c r="H57">
+        <f>VLOOKUP(A57,articles!A:E,3,FALSE)</f>
+        <v>2013</v>
+      </c>
+      <c r="I57" t="str">
+        <f>VLOOKUP(A57,articles!A:E,4,FALSE)</f>
+        <v>How Is the Mobile Internet Different? Search Costs and Local Activities</v>
+      </c>
+      <c r="J57" t="str">
+        <f>VLOOKUP(A57,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>183</v>
@@ -2802,18 +4173,34 @@
         <v>2017</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G58" t="str">
+        <f>VLOOKUP(A58,articles!A:E,2,FALSE)</f>
+        <v>Sen</v>
+      </c>
+      <c r="H58">
+        <f>VLOOKUP(A58,articles!A:E,3,FALSE)</f>
+        <v>2006</v>
+      </c>
+      <c r="I58" t="str">
+        <f>VLOOKUP(A58,articles!A:E,4,FALSE)</f>
+        <v>Buyers' Choice of Online Search Strategy and Its Managerial Implications</v>
+      </c>
+      <c r="J58" t="str">
+        <f>VLOOKUP(A58,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>183</v>
@@ -2822,118 +4209,214 @@
         <v>2017</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G59" t="str">
+        <f>VLOOKUP(A59,articles!A:E,2,FALSE)</f>
+        <v>Jennifer Zhang</v>
+      </c>
+      <c r="H59">
+        <f>VLOOKUP(A59,articles!A:E,3,FALSE)</f>
+        <v>2007</v>
+      </c>
+      <c r="I59" t="str">
+        <f>VLOOKUP(A59,articles!A:E,4,FALSE)</f>
+        <v>Online Consumer Search Depth: Theories and New Findings</v>
+      </c>
+      <c r="J59" t="str">
+        <f>VLOOKUP(A59,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="G60" t="str">
+        <f>VLOOKUP(A60,articles!A:E,2,FALSE)</f>
+        <v>Feller et al.</v>
+      </c>
+      <c r="H60">
+        <f>VLOOKUP(A60,articles!A:E,3,FALSE)</f>
+        <v>2012</v>
+      </c>
+      <c r="I60" t="str">
+        <f>VLOOKUP(A60,articles!A:E,4,FALSE)</f>
+        <v>‘Orchestrating’ sustainable crowdsourcing: A characterisation of solver brokerages</v>
+      </c>
+      <c r="J60" t="str">
+        <f>VLOOKUP(A60,articles!A:E,5,FALSE)</f>
+        <v>The Journal of Strategic Information Systems</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D60" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="D61" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="G61" t="str">
+        <f>VLOOKUP(A61,articles!A:E,2,FALSE)</f>
+        <v>Teo</v>
+      </c>
+      <c r="H61">
+        <f>VLOOKUP(A61,articles!A:E,3,FALSE)</f>
+        <v>1997</v>
+      </c>
+      <c r="I61" t="str">
+        <f>VLOOKUP(A61,articles!A:E,4,FALSE)</f>
+        <v>Organizational Transformation Using Electronic Data Interchange: The Case of TradeNet in Singapore</v>
+      </c>
+      <c r="J61" t="str">
+        <f>VLOOKUP(A61,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D62" s="1">
-        <v>2015</v>
+        <v>1997</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="G62" t="str">
+        <f>VLOOKUP(A62,articles!A:E,2,FALSE)</f>
+        <v>Floyd &amp; Wooldridge</v>
+      </c>
+      <c r="H62">
+        <f>VLOOKUP(A62,articles!A:E,3,FALSE)</f>
+        <v>1990</v>
+      </c>
+      <c r="I62" t="str">
+        <f>VLOOKUP(A62,articles!A:E,4,FALSE)</f>
+        <v>Path Analysis of the Relationship between Competitive Strategy, Information Technology, and Financial Performance</v>
+      </c>
+      <c r="J62" t="str">
+        <f>VLOOKUP(A62,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="D63" s="1">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G63" t="str">
+        <f>VLOOKUP(A63,articles!A:E,2,FALSE)</f>
+        <v>Winter</v>
+      </c>
+      <c r="H63">
+        <f>VLOOKUP(A63,articles!A:E,3,FALSE)</f>
+        <v>2003</v>
+      </c>
+      <c r="I63" t="str">
+        <f>VLOOKUP(A63,articles!A:E,4,FALSE)</f>
+        <v>Electronic window dressing: impression management with Websites</v>
+      </c>
+      <c r="J63" t="str">
+        <f>VLOOKUP(A63,articles!A:E,5,FALSE)</f>
+        <v>European Journal of Information Systems</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="F64" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1997</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" t="str">
+        <f>VLOOKUP(A64,articles!A:E,2,FALSE)</f>
+        <v>Walsham</v>
+      </c>
+      <c r="H64">
+        <f>VLOOKUP(A64,articles!A:E,3,FALSE)</f>
+        <v>2006</v>
+      </c>
+      <c r="I64" t="str">
+        <f>VLOOKUP(A64,articles!A:E,4,FALSE)</f>
+        <v>Doing interpretive research</v>
+      </c>
+      <c r="J64" t="str">
+        <f>VLOOKUP(A64,articles!A:E,5,FALSE)</f>
+        <v>European Journal of Information Systems</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>31</v>
@@ -2942,18 +4425,34 @@
         <v>2013</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G65" t="str">
+        <f>VLOOKUP(A65,articles!A:E,2,FALSE)</f>
+        <v>Corbitt</v>
+      </c>
+      <c r="H65">
+        <f>VLOOKUP(A65,articles!A:E,3,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="I65" t="str">
+        <f>VLOOKUP(A65,articles!A:E,4,FALSE)</f>
+        <v>Developing intraorganizational electronic commerce strategy: an ethnographic study</v>
+      </c>
+      <c r="J65" t="str">
+        <f>VLOOKUP(A65,articles!A:E,5,FALSE)</f>
+        <v>Journal of Information Technology</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>31</v>
@@ -2962,18 +4461,34 @@
         <v>2013</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G66" t="str">
+        <f>VLOOKUP(A66,articles!A:E,2,FALSE)</f>
+        <v>Ma &amp; Agarwal</v>
+      </c>
+      <c r="H66">
+        <f>VLOOKUP(A66,articles!A:E,3,FALSE)</f>
+        <v>2007</v>
+      </c>
+      <c r="I66" t="str">
+        <f>VLOOKUP(A66,articles!A:E,4,FALSE)</f>
+        <v>Through a Glass Darkly: Information Technology Design, Identity Verification, and Knowledge Contribution in Online Communities</v>
+      </c>
+      <c r="J66" t="str">
+        <f>VLOOKUP(A66,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="B67" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>31</v>
@@ -2982,18 +4497,34 @@
         <v>2013</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="G67" t="str">
+        <f>VLOOKUP(A67,articles!A:E,2,FALSE)</f>
+        <v>Agarwal et al.</v>
+      </c>
+      <c r="H67">
+        <f>VLOOKUP(A67,articles!A:E,3,FALSE)</f>
+        <v>2010</v>
+      </c>
+      <c r="I67" t="str">
+        <f>VLOOKUP(A67,articles!A:E,4,FALSE)</f>
+        <v>Research Commentary—The Digital Transformation of Healthcare: Current Status and the Road Ahead</v>
+      </c>
+      <c r="J67" t="str">
+        <f>VLOOKUP(A67,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>31</v>
@@ -3002,238 +4533,430 @@
         <v>2013</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="G68" t="str">
+        <f>VLOOKUP(A68,articles!A:E,2,FALSE)</f>
+        <v>Walsham</v>
+      </c>
+      <c r="H68">
+        <f>VLOOKUP(A68,articles!A:E,3,FALSE)</f>
+        <v>1995</v>
+      </c>
+      <c r="I68" t="str">
+        <f>VLOOKUP(A68,articles!A:E,4,FALSE)</f>
+        <v>The Emergence of Interpretivism in IS Research</v>
+      </c>
+      <c r="J68" t="str">
+        <f>VLOOKUP(A68,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D69" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="G69" t="str">
+        <f>VLOOKUP(A69,articles!A:E,2,FALSE)</f>
+        <v>Kvasny &amp; Keil</v>
+      </c>
+      <c r="H69">
+        <f>VLOOKUP(A69,articles!A:E,3,FALSE)</f>
+        <v>2006</v>
+      </c>
+      <c r="I69" t="str">
+        <f>VLOOKUP(A69,articles!A:E,4,FALSE)</f>
+        <v>The challenges of redressing the digital divide: a tale of two US cities</v>
+      </c>
+      <c r="J69" t="str">
+        <f>VLOOKUP(A69,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Journal</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D70" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G70" t="str">
+        <f>VLOOKUP(A70,articles!A:E,2,FALSE)</f>
+        <v>Hsieh</v>
+      </c>
+      <c r="H70">
+        <f>VLOOKUP(A70,articles!A:E,3,FALSE)</f>
+        <v>2011</v>
+      </c>
+      <c r="I70" t="str">
+        <f>VLOOKUP(A70,articles!A:E,4,FALSE)</f>
+        <v>Addressing Digital Inequality for the Socioeconomically Disadvantaged Through Government Initiatives: Forms of Capital That Affect ICT Utilization</v>
+      </c>
+      <c r="J70" t="str">
+        <f>VLOOKUP(A70,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G71" t="str">
+        <f>VLOOKUP(A71,articles!A:E,2,FALSE)</f>
+        <v>Turel &amp; Serenko</v>
+      </c>
+      <c r="H71">
+        <f>VLOOKUP(A71,articles!A:E,3,FALSE)</f>
+        <v>2012</v>
+      </c>
+      <c r="I71" t="str">
+        <f>VLOOKUP(A71,articles!A:E,4,FALSE)</f>
+        <v>The benefits and dangers of enjoyment with social networking websites</v>
+      </c>
+      <c r="J71" t="str">
+        <f>VLOOKUP(A71,articles!A:E,5,FALSE)</f>
+        <v>European Journal of Information Systems</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1969</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G72" t="str">
+        <f>VLOOKUP(A72,articles!A:E,2,FALSE)</f>
+        <v>Galegher &amp; Kraut</v>
+      </c>
+      <c r="H72">
+        <f>VLOOKUP(A72,articles!A:E,3,FALSE)</f>
+        <v>1994</v>
+      </c>
+      <c r="I72" t="str">
+        <f>VLOOKUP(A72,articles!A:E,4,FALSE)</f>
+        <v>Computer-Mediated Communication for Intellectual Teamwork: An Experiment in Group Writing</v>
+      </c>
+      <c r="J72" t="str">
+        <f>VLOOKUP(A72,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G73" t="str">
+        <f>VLOOKUP(A73,articles!A:E,2,FALSE)</f>
+        <v>Holland</v>
+      </c>
+      <c r="H73">
+        <f>VLOOKUP(A73,articles!A:E,3,FALSE)</f>
+        <v>1995</v>
+      </c>
+      <c r="I73" t="str">
+        <f>VLOOKUP(A73,articles!A:E,4,FALSE)</f>
+        <v>Cooperative supply chain management: the impact of interorganizational information systems</v>
+      </c>
+      <c r="J73" t="str">
+        <f>VLOOKUP(A73,articles!A:E,5,FALSE)</f>
+        <v>The Journal of Strategic Information Systems</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G74" t="str">
+        <f>VLOOKUP(A74,articles!A:E,2,FALSE)</f>
+        <v>Burtch</v>
+      </c>
+      <c r="H74">
+        <f>VLOOKUP(A74,articles!A:E,3,FALSE)</f>
         <v>2013</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="I74" t="str">
+        <f>VLOOKUP(A74,articles!A:E,4,FALSE)</f>
+        <v>An Empirical Examination of the Antecedents and Consequences of Contribution Patterns in Crowd-Funded Markets</v>
+      </c>
+      <c r="J74" t="str">
+        <f>VLOOKUP(A74,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G75" t="str">
+        <f>VLOOKUP(A75,articles!A:E,2,FALSE)</f>
+        <v>Bannister</v>
+      </c>
+      <c r="H75">
+        <f>VLOOKUP(A75,articles!A:E,3,FALSE)</f>
+        <v>2001</v>
+      </c>
+      <c r="I75" t="str">
+        <f>VLOOKUP(A75,articles!A:E,4,FALSE)</f>
+        <v>Dismantling the silos: extracting new value from IT investments in public administration</v>
+      </c>
+      <c r="J75" t="str">
+        <f>VLOOKUP(A75,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Journal</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D72" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1969</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D75" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="D76" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" t="str">
+        <f>VLOOKUP(A76,articles!A:E,2,FALSE)</f>
+        <v>Wang &amp; Strong</v>
+      </c>
+      <c r="H76">
+        <f>VLOOKUP(A76,articles!A:E,3,FALSE)</f>
+        <v>1996</v>
+      </c>
+      <c r="I76" t="str">
+        <f>VLOOKUP(A76,articles!A:E,4,FALSE)</f>
+        <v>Beyond Accuracy: What Data Quality Means to Data Consumers</v>
+      </c>
+      <c r="J76" t="str">
+        <f>VLOOKUP(A76,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="1">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" t="str">
+        <f>VLOOKUP(A77,articles!A:E,2,FALSE)</f>
+        <v>Huysman &amp; Wulf</v>
+      </c>
+      <c r="H77">
+        <f>VLOOKUP(A77,articles!A:E,3,FALSE)</f>
+        <v>2005</v>
+      </c>
+      <c r="I77" t="str">
+        <f>VLOOKUP(A77,articles!A:E,4,FALSE)</f>
+        <v>IT to support knowledge sharing in communities, towards a social capital analysis</v>
+      </c>
+      <c r="J77" t="str">
+        <f>VLOOKUP(A77,articles!A:E,5,FALSE)</f>
+        <v>Journal of Information Technology</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="B78" s="1" t="s">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D78" s="1">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G78" t="str">
+        <f>VLOOKUP(A78,articles!A:E,2,FALSE)</f>
+        <v>Warkentin &amp; Beranek</v>
+      </c>
+      <c r="H78">
+        <f>VLOOKUP(A78,articles!A:E,3,FALSE)</f>
+        <v>1999</v>
+      </c>
+      <c r="I78" t="str">
+        <f>VLOOKUP(A78,articles!A:E,4,FALSE)</f>
+        <v>Training to improve virtual team communication</v>
+      </c>
+      <c r="J78" t="str">
+        <f>VLOOKUP(A78,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Journal</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2014</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="F79" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D79" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" t="str">
+        <f>VLOOKUP(A79,articles!A:E,2,FALSE)</f>
+        <v>Jarvenpaa &amp; Ives</v>
+      </c>
+      <c r="H79">
+        <f>VLOOKUP(A79,articles!A:E,3,FALSE)</f>
+        <v>1994</v>
+      </c>
+      <c r="I79" t="str">
+        <f>VLOOKUP(A79,articles!A:E,4,FALSE)</f>
+        <v>The Global Network Organization of the Future: Information Management Opportunities and Challenges</v>
+      </c>
+      <c r="J79" t="str">
+        <f>VLOOKUP(A79,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>25</v>
@@ -3242,413 +4965,540 @@
         <v>2014</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G80" t="str">
+        <f>VLOOKUP(A80,articles!A:E,2,FALSE)</f>
+        <v>Jarvenpaa</v>
+      </c>
+      <c r="H80">
+        <f>VLOOKUP(A80,articles!A:E,3,FALSE)</f>
+        <v>1998</v>
+      </c>
+      <c r="I80" t="str">
+        <f>VLOOKUP(A80,articles!A:E,4,FALSE)</f>
+        <v>Is Anybody out There? Antecedents of Trust in Global Virtual Teams</v>
+      </c>
+      <c r="J80" t="str">
+        <f>VLOOKUP(A80,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="G81" t="str">
+        <f>VLOOKUP(A81,articles!A:E,2,FALSE)</f>
+        <v>Clemons &amp; Madhani</v>
+      </c>
+      <c r="H81">
+        <f>VLOOKUP(A81,articles!A:E,3,FALSE)</f>
+        <v>2010</v>
+      </c>
+      <c r="I81" t="str">
+        <f>VLOOKUP(A81,articles!A:E,4,FALSE)</f>
+        <v>Regulation of Digital Businesses with Natural Monopolies or Third-Party Payment Business Models: Antitrust Lessons from the Analysis of Google</v>
+      </c>
+      <c r="J81" t="str">
+        <f>VLOOKUP(A81,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G82" t="str">
+        <f>VLOOKUP(A82,articles!A:E,2,FALSE)</f>
+        <v>Yaraghi et al.</v>
+      </c>
+      <c r="H82">
+        <f>VLOOKUP(A82,articles!A:E,3,FALSE)</f>
+        <v>2015</v>
+      </c>
+      <c r="I82" t="str">
+        <f>VLOOKUP(A82,articles!A:E,4,FALSE)</f>
+        <v>Health Information Exchange as a Multisided Platform: Adoption, Usage, and Practice Involvement in Service Co-Production</v>
+      </c>
+      <c r="J82" t="str">
+        <f>VLOOKUP(A82,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="G83" t="str">
+        <f>VLOOKUP(A83,articles!A:E,2,FALSE)</f>
+        <v>Pan &amp; Leidner</v>
+      </c>
+      <c r="H83">
+        <f>VLOOKUP(A83,articles!A:E,3,FALSE)</f>
+        <v>2003</v>
+      </c>
+      <c r="I83" t="str">
+        <f>VLOOKUP(A83,articles!A:E,4,FALSE)</f>
+        <v>Bridging communities of practice with information technology in pursuit of global knowledge sharing</v>
+      </c>
+      <c r="J83" t="str">
+        <f>VLOOKUP(A83,articles!A:E,5,FALSE)</f>
+        <v>The Journal of Strategic Information Systems</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>274</v>
+        <v>29</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>275</v>
+        <v>30</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D84" s="1">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G84" t="str">
+        <f>VLOOKUP(A84,articles!A:E,2,FALSE)</f>
+        <v>Panko</v>
+      </c>
+      <c r="H84">
+        <f>VLOOKUP(A84,articles!A:E,3,FALSE)</f>
+        <v>2008</v>
+      </c>
+      <c r="I84" t="str">
+        <f>VLOOKUP(A84,articles!A:E,4,FALSE)</f>
+        <v>IT employment prospects: beyond the dotcom bubble</v>
+      </c>
+      <c r="J84" t="str">
+        <f>VLOOKUP(A84,articles!A:E,5,FALSE)</f>
+        <v>European Journal of Information Systems</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="C85" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="F85" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="G85" t="str">
+        <f>VLOOKUP(A85,articles!A:E,2,FALSE)</f>
+        <v>Peace et al.</v>
+      </c>
+      <c r="H85">
+        <f>VLOOKUP(A85,articles!A:E,3,FALSE)</f>
+        <v>2003</v>
+      </c>
+      <c r="I85" t="str">
+        <f>VLOOKUP(A85,articles!A:E,4,FALSE)</f>
+        <v>Software Piracy in the Workplace: A Model and Empirical Test</v>
+      </c>
+      <c r="J85" t="str">
+        <f>VLOOKUP(A85,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D85" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="C86" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G86" t="str">
+        <f>VLOOKUP(A86,articles!A:E,2,FALSE)</f>
+        <v>Gopal &amp; Sanders</v>
+      </c>
+      <c r="H86">
+        <f>VLOOKUP(A86,articles!A:E,3,FALSE)</f>
+        <v>1998</v>
+      </c>
+      <c r="I86" t="str">
+        <f>VLOOKUP(A86,articles!A:E,4,FALSE)</f>
+        <v>International Software Piracy: Analysis of Key Issues and Impacts</v>
+      </c>
+      <c r="J86" t="str">
+        <f>VLOOKUP(A86,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D86" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D87" s="1">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" t="str">
+        <f>VLOOKUP(A87,articles!A:E,2,FALSE)</f>
+        <v>Zuboff</v>
+      </c>
+      <c r="H87">
+        <f>VLOOKUP(A87,articles!A:E,3,FALSE)</f>
+        <v>2015</v>
+      </c>
+      <c r="I87" t="str">
+        <f>VLOOKUP(A87,articles!A:E,4,FALSE)</f>
+        <v>Big other: surveillance capitalism and the prospects of an information civilization</v>
+      </c>
+      <c r="J87" t="str">
+        <f>VLOOKUP(A87,articles!A:E,5,FALSE)</f>
+        <v>Journal of Information Technology</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="C88" s="1" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D88" s="1">
         <v>2013</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" t="str">
+        <f>VLOOKUP(A88,articles!A:E,2,FALSE)</f>
+        <v>Al-Debei &amp; Avison</v>
+      </c>
+      <c r="H88">
+        <f>VLOOKUP(A88,articles!A:E,3,FALSE)</f>
+        <v>2010</v>
+      </c>
+      <c r="I88" t="str">
+        <f>VLOOKUP(A88,articles!A:E,4,FALSE)</f>
+        <v>Developing a unified framework of the business model concept</v>
+      </c>
+      <c r="J88" t="str">
+        <f>VLOOKUP(A88,articles!A:E,5,FALSE)</f>
+        <v>European Journal of Information Systems</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D89" s="1">
-        <v>2013</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="G89" t="str">
+        <f>VLOOKUP(A89,articles!A:E,2,FALSE)</f>
+        <v>ZHOU et al.</v>
+      </c>
+      <c r="H89">
+        <f>VLOOKUP(A89,articles!A:E,3,FALSE)</f>
+        <v>2004</v>
+      </c>
+      <c r="I89" t="str">
+        <f>VLOOKUP(A89,articles!A:E,4,FALSE)</f>
+        <v>A Comparison of Classification Methods for Predicting Deception in Computer-Mediated Communication</v>
+      </c>
+      <c r="J89" t="str">
+        <f>VLOOKUP(A89,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D90" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" t="str">
+        <f>VLOOKUP(A90,articles!A:E,2,FALSE)</f>
+        <v>Zmud</v>
+      </c>
+      <c r="H90">
+        <f>VLOOKUP(A90,articles!A:E,3,FALSE)</f>
+        <v>1990</v>
+      </c>
+      <c r="I90" t="str">
+        <f>VLOOKUP(A90,articles!A:E,4,FALSE)</f>
+        <v>An Attribute Space for Organizational Communication Channels</v>
+      </c>
+      <c r="J90" t="str">
+        <f>VLOOKUP(A90,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D91" s="1">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="G91" t="str">
+        <f>VLOOKUP(A91,articles!A:E,2,FALSE)</f>
+        <v>Marabelli &amp; Newell</v>
+      </c>
+      <c r="H91">
+        <f>VLOOKUP(A91,articles!A:E,3,FALSE)</f>
+        <v>2012</v>
+      </c>
+      <c r="I91" t="str">
+        <f>VLOOKUP(A91,articles!A:E,4,FALSE)</f>
+        <v>Knowledge risks in organizational networks: The practice perspective</v>
+      </c>
+      <c r="J91" t="str">
+        <f>VLOOKUP(A91,articles!A:E,5,FALSE)</f>
+        <v>The Journal of Strategic Information Systems</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G92" t="str">
+        <f>VLOOKUP(A92,articles!A:E,2,FALSE)</f>
+        <v>Malhotra</v>
+      </c>
+      <c r="H92">
+        <f>VLOOKUP(A92,articles!A:E,3,FALSE)</f>
+        <v>2004</v>
+      </c>
+      <c r="I92" t="str">
+        <f>VLOOKUP(A92,articles!A:E,4,FALSE)</f>
+        <v>Internet Users' Information Privacy Concerns (IUIPC): The Construct, the Scale, and a Causal Model</v>
+      </c>
+      <c r="J92" t="str">
+        <f>VLOOKUP(A92,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="C93" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+      <c r="F93" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="G93" t="str">
+        <f>VLOOKUP(A93,articles!A:E,2,FALSE)</f>
+        <v>Bhattacherjee</v>
+      </c>
+      <c r="H93">
+        <f>VLOOKUP(A93,articles!A:E,3,FALSE)</f>
+        <v>2002</v>
+      </c>
+      <c r="I93" t="str">
+        <f>VLOOKUP(A93,articles!A:E,4,FALSE)</f>
+        <v>Individual Trust in Online Firms: Scale Development and Initial Test</v>
+      </c>
+      <c r="J93" t="str">
+        <f>VLOOKUP(A93,articles!A:E,5,FALSE)</f>
+        <v>Journal of Management Information Systems</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F93" s="2" t="s">
+      <c r="B94" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D94" s="1">
-        <v>2013</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D95" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D96" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D97" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D98" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D99" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D100" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>324</v>
+        <v>304</v>
+      </c>
+      <c r="G94" t="str">
+        <f>VLOOKUP(A94,articles!A:E,2,FALSE)</f>
+        <v>McKnight</v>
+      </c>
+      <c r="H94">
+        <f>VLOOKUP(A94,articles!A:E,3,FALSE)</f>
+        <v>2002</v>
+      </c>
+      <c r="I94" t="str">
+        <f>VLOOKUP(A94,articles!A:E,4,FALSE)</f>
+        <v>Developing and Validating Trust Measures for e-Commerce: An Integrative Typology</v>
+      </c>
+      <c r="J94" t="str">
+        <f>VLOOKUP(A94,articles!A:E,5,FALSE)</f>
+        <v>Information Systems Research</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="J1:J94">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Journal of Information Technology"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
@@ -3702,123 +5552,115 @@
     <hyperlink ref="F51" r:id="rId50"/>
     <hyperlink ref="F52" r:id="rId51"/>
     <hyperlink ref="F53" r:id="rId52"/>
-    <hyperlink ref="C54" r:id="rId53"/>
-    <hyperlink ref="F54" r:id="rId54"/>
-    <hyperlink ref="C55" r:id="rId55"/>
-    <hyperlink ref="F55" r:id="rId56"/>
-    <hyperlink ref="F56" r:id="rId57"/>
-    <hyperlink ref="F57" r:id="rId58"/>
-    <hyperlink ref="F58" r:id="rId59"/>
-    <hyperlink ref="F59" r:id="rId60"/>
-    <hyperlink ref="F60" r:id="rId61"/>
-    <hyperlink ref="F61" r:id="rId62"/>
-    <hyperlink ref="F62" r:id="rId63"/>
-    <hyperlink ref="F63" r:id="rId64"/>
-    <hyperlink ref="F64" r:id="rId65"/>
-    <hyperlink ref="F65" r:id="rId66"/>
-    <hyperlink ref="F66" r:id="rId67"/>
-    <hyperlink ref="F67" r:id="rId68"/>
-    <hyperlink ref="F68" r:id="rId69"/>
-    <hyperlink ref="F69" r:id="rId70"/>
-    <hyperlink ref="F70" r:id="rId71"/>
-    <hyperlink ref="F71" r:id="rId72"/>
-    <hyperlink ref="F72" r:id="rId73"/>
-    <hyperlink ref="F73" r:id="rId74"/>
-    <hyperlink ref="F74" r:id="rId75"/>
-    <hyperlink ref="F75" r:id="rId76"/>
-    <hyperlink ref="F76" r:id="rId77"/>
-    <hyperlink ref="F77" r:id="rId78"/>
-    <hyperlink ref="F78" r:id="rId79"/>
-    <hyperlink ref="C79" r:id="rId80"/>
-    <hyperlink ref="F79" r:id="rId81"/>
-    <hyperlink ref="F80" r:id="rId82"/>
-    <hyperlink ref="F81" r:id="rId83"/>
-    <hyperlink ref="F82" r:id="rId84"/>
-    <hyperlink ref="F83" r:id="rId85"/>
-    <hyperlink ref="F84" r:id="rId86"/>
-    <hyperlink ref="F85" r:id="rId87"/>
-    <hyperlink ref="F86" r:id="rId88"/>
-    <hyperlink ref="F87" r:id="rId89"/>
-    <hyperlink ref="F88" r:id="rId90"/>
-    <hyperlink ref="F89" r:id="rId91"/>
-    <hyperlink ref="F90" r:id="rId92"/>
-    <hyperlink ref="F91" r:id="rId93"/>
-    <hyperlink ref="F92" r:id="rId94"/>
-    <hyperlink ref="F93" r:id="rId95"/>
-    <hyperlink ref="C94" r:id="rId96"/>
-    <hyperlink ref="F94" r:id="rId97"/>
-    <hyperlink ref="F95" r:id="rId98"/>
-    <hyperlink ref="F96" r:id="rId99"/>
-    <hyperlink ref="F97" r:id="rId100"/>
-    <hyperlink ref="F98" r:id="rId101"/>
-    <hyperlink ref="C99" r:id="rId102"/>
-    <hyperlink ref="F99" r:id="rId103"/>
-    <hyperlink ref="C100" r:id="rId104"/>
-    <hyperlink ref="F100" r:id="rId105"/>
+    <hyperlink ref="F54" r:id="rId53"/>
+    <hyperlink ref="F55" r:id="rId54"/>
+    <hyperlink ref="F56" r:id="rId55"/>
+    <hyperlink ref="F57" r:id="rId56"/>
+    <hyperlink ref="F58" r:id="rId57"/>
+    <hyperlink ref="F59" r:id="rId58"/>
+    <hyperlink ref="F60" r:id="rId59"/>
+    <hyperlink ref="F61" r:id="rId60"/>
+    <hyperlink ref="F62" r:id="rId61"/>
+    <hyperlink ref="F63" r:id="rId62"/>
+    <hyperlink ref="F64" r:id="rId63"/>
+    <hyperlink ref="F65" r:id="rId64"/>
+    <hyperlink ref="F66" r:id="rId65"/>
+    <hyperlink ref="F67" r:id="rId66"/>
+    <hyperlink ref="F68" r:id="rId67"/>
+    <hyperlink ref="F69" r:id="rId68"/>
+    <hyperlink ref="F70" r:id="rId69"/>
+    <hyperlink ref="F71" r:id="rId70"/>
+    <hyperlink ref="F72" r:id="rId71"/>
+    <hyperlink ref="F73" r:id="rId72"/>
+    <hyperlink ref="F74" r:id="rId73"/>
+    <hyperlink ref="F75" r:id="rId74"/>
+    <hyperlink ref="F76" r:id="rId75"/>
+    <hyperlink ref="F77" r:id="rId76"/>
+    <hyperlink ref="F78" r:id="rId77"/>
+    <hyperlink ref="F79" r:id="rId78"/>
+    <hyperlink ref="F80" r:id="rId79"/>
+    <hyperlink ref="F81" r:id="rId80"/>
+    <hyperlink ref="F82" r:id="rId81"/>
+    <hyperlink ref="F83" r:id="rId82"/>
+    <hyperlink ref="F84" r:id="rId83"/>
+    <hyperlink ref="F85" r:id="rId84"/>
+    <hyperlink ref="F86" r:id="rId85"/>
+    <hyperlink ref="F87" r:id="rId86"/>
+    <hyperlink ref="F88" r:id="rId87"/>
+    <hyperlink ref="F89" r:id="rId88"/>
+    <hyperlink ref="F90" r:id="rId89"/>
+    <hyperlink ref="F91" r:id="rId90"/>
+    <hyperlink ref="F92" r:id="rId91"/>
+    <hyperlink ref="F93" r:id="rId92"/>
+    <hyperlink ref="F94" r:id="rId93"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E984"/>
+  <dimension ref="A1:E979"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E984"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="C2" s="1">
         <v>2012</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="C3" s="1">
         <v>2004</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3826,7 +5668,7 @@
         <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="C4" s="1">
         <v>1990</v>
@@ -3835,7 +5677,7 @@
         <v>158</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3843,7 +5685,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="C5" s="1">
         <v>2005</v>
@@ -3852,7 +5694,7 @@
         <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3860,7 +5702,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="C6" s="1">
         <v>1993</v>
@@ -3869,41 +5711,41 @@
         <v>119</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="C7" s="1">
         <v>2011</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="C8" s="1">
         <v>1990</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3911,7 +5753,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="C9" s="1">
         <v>2013</v>
@@ -3920,7 +5762,7 @@
         <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3928,7 +5770,7 @@
         <v>172</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="C10" s="1">
         <v>2006</v>
@@ -3937,24 +5779,24 @@
         <v>173</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C11" s="1">
         <v>2007</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3962,7 +5804,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C12" s="1">
         <v>2003</v>
@@ -3971,7 +5813,7 @@
         <v>103</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3979,67 +5821,67 @@
         <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="C13" s="1">
         <v>1996</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="C14" s="1">
         <v>2015</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="C15" s="1">
         <v>2003</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="C16" s="1">
         <v>2006</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -4047,7 +5889,7 @@
         <v>166</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C17" s="1">
         <v>2002</v>
@@ -4056,7 +5898,7 @@
         <v>167</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -4064,7 +5906,7 @@
         <v>161</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="C18" s="1">
         <v>1997</v>
@@ -4073,24 +5915,24 @@
         <v>162</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="C19" s="1">
         <v>1994</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -4098,7 +5940,7 @@
         <v>177</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="C20" s="1">
         <v>2011</v>
@@ -4107,24 +5949,24 @@
         <v>178</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="C21" s="1">
         <v>1995</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -4132,7 +5974,7 @@
         <v>181</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C22" s="1">
         <v>2008</v>
@@ -4141,7 +5983,7 @@
         <v>182</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4149,7 +5991,7 @@
         <v>106</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="C23" s="1">
         <v>2009</v>
@@ -4158,75 +6000,75 @@
         <v>107</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C24" s="1">
         <v>2010</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="C25" s="1">
         <v>2002</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="C26" s="1">
         <v>2000</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="C27" s="1">
         <v>2001</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -4234,7 +6076,7 @@
         <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="C28" s="1">
         <v>2006</v>
@@ -4243,41 +6085,41 @@
         <v>57</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C29" s="1">
         <v>2006</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="C30" s="1">
         <v>2003</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -4285,7 +6127,7 @@
         <v>68</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="C31" s="1">
         <v>2007</v>
@@ -4294,7 +6136,7 @@
         <v>69</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -4302,7 +6144,7 @@
         <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="C32" s="1">
         <v>1999</v>
@@ -4311,7 +6153,7 @@
         <v>47</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -4319,7 +6161,7 @@
         <v>122</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="C33" s="1">
         <v>1986</v>
@@ -4328,7 +6170,7 @@
         <v>123</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -4336,7 +6178,7 @@
         <v>85</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="C34" s="1">
         <v>2006</v>
@@ -4345,24 +6187,24 @@
         <v>86</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="C35" s="1">
         <v>2015</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -4370,7 +6212,7 @@
         <v>108</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="C36" s="1">
         <v>2012</v>
@@ -4379,41 +6221,41 @@
         <v>109</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="C37" s="1">
         <v>2013</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C38" s="1">
         <v>2002</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -4421,7 +6263,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="C39" s="1">
         <v>2009</v>
@@ -4430,7 +6272,7 @@
         <v>17</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -4438,7 +6280,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="C40" s="1">
         <v>2011</v>
@@ -4447,7 +6289,7 @@
         <v>45</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -4455,7 +6297,7 @@
         <v>76</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="C41" s="1">
         <v>1995</v>
@@ -4464,7 +6306,7 @@
         <v>77</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -4472,7 +6314,7 @@
         <v>90</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="C42" s="1">
         <v>1999</v>
@@ -4481,7 +6323,7 @@
         <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -4489,7 +6331,7 @@
         <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="C43" s="1">
         <v>1997</v>
@@ -4498,7 +6340,7 @@
         <v>127</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -4506,7 +6348,7 @@
         <v>144</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="C44" s="1">
         <v>2004</v>
@@ -4515,7 +6357,7 @@
         <v>145</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -4523,7 +6365,7 @@
         <v>146</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="C45" s="1">
         <v>2000</v>
@@ -4532,7 +6374,7 @@
         <v>147</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -4540,7 +6382,7 @@
         <v>140</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="C46" s="1">
         <v>2001</v>
@@ -4549,7 +6391,7 @@
         <v>141</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -4557,7 +6399,7 @@
         <v>136</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="C47" s="1">
         <v>2012</v>
@@ -4566,41 +6408,41 @@
         <v>137</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="C48" s="1">
         <v>1998</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="C49" s="1">
         <v>2004</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -4608,16 +6450,16 @@
         <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="C50" s="1">
         <v>1998</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -4625,7 +6467,7 @@
         <v>29</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="C51" s="1">
         <v>2008</v>
@@ -4634,41 +6476,41 @@
         <v>30</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="C52" s="1">
         <v>2005</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="C53" s="1">
         <v>2012</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -4676,7 +6518,7 @@
         <v>148</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="C54" s="1">
         <v>2003</v>
@@ -4685,7 +6527,7 @@
         <v>149</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -4693,7 +6535,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="C55" s="1">
         <v>2006</v>
@@ -4702,7 +6544,7 @@
         <v>51</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -4710,7 +6552,7 @@
         <v>130</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="C56" s="1">
         <v>2008</v>
@@ -4719,7 +6561,7 @@
         <v>131</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -4727,7 +6569,7 @@
         <v>116</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="C57" s="1">
         <v>1995</v>
@@ -4736,24 +6578,24 @@
         <v>117</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="C58" s="1">
         <v>2007</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -4761,7 +6603,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C59" s="1">
         <v>2001</v>
@@ -4770,327 +6612,327 @@
         <v>7</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="C60" s="1">
         <v>1997</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="C61" s="1">
         <v>1990</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C62" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C63" s="1">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="C64" s="1">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>58</v>
+        <v>263</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="C65" s="1">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>59</v>
+        <v>264</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>274</v>
+        <v>150</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>410</v>
+        <v>348</v>
       </c>
       <c r="C66" s="1">
         <v>2010</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>275</v>
+        <v>349</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="C67" s="1">
         <v>2010</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>372</v>
+        <v>226</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="C68" s="1">
         <v>2010</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="C69" s="1">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>375</v>
+        <v>113</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="C70" s="1">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>424</v>
+        <v>322</v>
       </c>
       <c r="C71" s="1">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>417</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>343</v>
+        <v>403</v>
       </c>
       <c r="C72" s="1">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>286</v>
+        <v>94</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="C73" s="1">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>287</v>
+        <v>95</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="C74" s="1">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="C75" s="1">
-        <v>1996</v>
+        <v>2012</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>392</v>
+        <v>324</v>
       </c>
       <c r="C76" s="1">
         <v>2003</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>387</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C77" s="1">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="C78" s="1">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>332</v>
@@ -5098,207 +6940,157 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="C79" s="1">
-        <v>2006</v>
+        <v>1994</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>260</v>
+        <v>192</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="C80" s="1">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="C81" s="1">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C82" s="1">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="C83" s="1">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>325</v>
+        <v>60</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="C84" s="1">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>326</v>
+        <v>61</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>128</v>
+        <v>257</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="C85" s="1">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C86" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>348</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C87" s="1">
-        <v>2009</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>417</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C88" s="1">
-        <v>2007</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>355</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C89" s="1">
-        <v>1997</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>387</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C90" s="1">
-        <v>1999</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>348</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
@@ -11523,42 +13315,1079 @@
       <c r="D979" s="1"/>
       <c r="E979" s="1"/>
     </row>
-    <row r="980" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A980" s="1"/>
-      <c r="B980" s="1"/>
-      <c r="C980" s="1"/>
-      <c r="D980" s="1"/>
-      <c r="E980" s="1"/>
-    </row>
-    <row r="981" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A981" s="1"/>
-      <c r="B981" s="1"/>
-      <c r="C981" s="1"/>
-      <c r="D981" s="1"/>
-      <c r="E981" s="1"/>
-    </row>
-    <row r="982" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A982" s="1"/>
-      <c r="B982" s="1"/>
-      <c r="C982" s="1"/>
-      <c r="D982" s="1"/>
-      <c r="E982" s="1"/>
-    </row>
-    <row r="983" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A983" s="1"/>
-      <c r="B983" s="1"/>
-      <c r="C983" s="1"/>
-      <c r="D983" s="1"/>
-      <c r="E983" s="1"/>
-    </row>
-    <row r="984" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A984" s="1"/>
-      <c r="B984" s="1"/>
-      <c r="C984" s="1"/>
-      <c r="D984" s="1"/>
-      <c r="E984" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2009</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2007</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2007</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1999</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1998</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1994</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1997</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1969</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2007</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E62" s="1"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E63" s="1"/>
+      <c r="F63" s="2"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D100">
+    <sortCondition ref="C1"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>